--- a/battlelogsexample.xlsx
+++ b/battlelogsexample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyangliu/Desktop/NFSBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D99949-09D1-1E41-B242-BE1F385EABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD577293-8095-B243-99A0-24F80DC666C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>7/1/2025</t>
-  </si>
-  <si>
     <t>GoldPursuit</t>
   </si>
   <si>
@@ -200,13 +197,16 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>07012025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="Aptos Narrow"/>
@@ -219,6 +219,11 @@
     <font>
       <sz val="12"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -577,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -625,2602 +630,2602 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
         <v>24</v>
       </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
         <v>12</v>
       </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20">
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21">
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
         <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
       </c>
       <c r="H22">
         <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H24">
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25">
         <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27">
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H28">
         <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32">
         <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H34">
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H38">
         <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
         <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
       </c>
       <c r="H39">
         <v>5</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H40">
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H41">
         <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
         <v>12</v>
       </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H43">
         <v>5</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H44">
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45">
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45">
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46">
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D50">
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D51">
         <v>5</v>
       </c>
       <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
         <v>12</v>
       </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
       <c r="H51">
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
         <v>35</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>36</v>
-      </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D55">
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56">
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
         <v>12</v>
       </c>
-      <c r="G57" t="s">
-        <v>13</v>
-      </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D58">
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H59">
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D60">
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D61">
         <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="H62" s="2">
         <v>1</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63" s="2">
         <v>1</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D64" s="2">
         <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H64" s="2">
         <v>2</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D65" s="2">
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H65" s="2">
         <v>2</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D66" s="2">
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H66" s="2">
         <v>2</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D67" s="2">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H67" s="2">
         <v>2</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D68" s="2">
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H68" s="2">
         <v>2</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D69" s="2">
         <v>3</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H69" s="2">
         <v>4</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D70" s="2">
         <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H70" s="2">
         <v>3</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D71" s="2">
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H71" s="2">
         <v>4</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D72" s="2">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H72" s="2">
         <v>3</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D73" s="2">
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H73" s="2">
         <v>5</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D74" s="2">
         <v>3</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H74" s="2">
         <v>4</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D75" s="2">
         <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H75" s="2">
         <v>5</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D76" s="2">
         <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H76" s="2">
         <v>4</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D77" s="2">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H77" s="2">
         <v>1</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D78" s="2">
         <v>2</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H78" s="2">
         <v>3</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D79" s="2">
         <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H79" s="2">
         <v>4</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D80" s="2">
         <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H80" s="2">
         <v>5</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D81" s="2">
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H81" s="2">
         <v>4</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D82" s="2">
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H82" s="2">
         <v>2</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D83" s="2">
         <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H83" s="2">
         <v>1</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D84" s="2">
         <v>3</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H84" s="2">
         <v>2</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D85" s="2">
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H85" s="2">
         <v>2</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D86" s="2">
         <v>2</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H86" s="2">
         <v>2</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D87" s="2">
         <v>3</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H87" s="2">
         <v>2</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D88" s="2">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H88" s="2">
         <v>5</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D89" s="2">
         <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H89" s="2">
         <v>3</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D90" s="2">
         <v>3</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H90" s="2">
         <v>3</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D91" s="2">
         <v>4</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H91" s="2">
         <v>5</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D92" s="2">
         <v>5</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H92" s="2">
         <v>5</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D93" s="2">
         <v>4</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H93" s="2">
         <v>3</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D94" s="2">
         <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H94" s="2">
         <v>1</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D95" s="2">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H95" s="2">
         <v>3</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D96" s="2">
         <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H96" s="2">
         <v>2</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D97" s="2">
         <v>3</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H97" s="2">
         <v>4</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D98" s="2">
         <v>4</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H98" s="2">
         <v>4</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D99" s="2">
         <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H99" s="2">
         <v>4</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D100" s="2">
         <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H100" s="2">
         <v>3</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D101" s="2">
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H101" s="2">
         <v>5</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1">
@@ -3694,6 +3699,7 @@
       <c r="I168" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/battlelogsexample.xlsx
+++ b/battlelogsexample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyangliu/Desktop/NFSBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD577293-8095-B243-99A0-24F80DC666C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29887820-82FC-3648-8B72-FBA23615F060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,7 +199,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>07012025</t>
+    <t>20250107</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
   <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
